--- a/Test/TestTargets.xlsx
+++ b/Test/TestTargets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD996A4A-61BA-48CC-B4DD-2ECDF8BA7688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4708AA-67FB-4641-999D-206C7A932D7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11385" xr2:uid="{BA9EA312-6809-4DB6-A902-8BFC8BFFD11A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Orchestrator Version</t>
     <phoneticPr fontId="1"/>
@@ -72,15 +72,27 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>onpremises</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>latest.ad.uipathkk.qa</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Default</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://latest.ad.uipathkk.qa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://2010.ad.uipathkk.qa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://1910.ad.uipathkk.qa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://184.ad.uipathkk.qa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>onPremises</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -88,7 +100,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,6 +111,15 @@
     </font>
     <font>
       <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="游ゴシック"/>
       <family val="2"/>
       <charset val="128"/>
@@ -122,17 +143,24 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,7 +488,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5D556A5-997A-452E-9C9C-F9EA9B54C424}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -512,27 +540,84 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>202104</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>202010</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" t="s">
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>201910</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>201804</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{5EC774C3-E726-4074-8669-269E72AEAFFE}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{F8342142-F77D-4725-94BC-C1029A644E60}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{25DE3D82-B13A-4B51-A9B3-69F792C6779A}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{8EB94263-E455-42DF-BC15-1AD9D4A75C7C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>